--- a/biology/Botanique/Otto_Stapf/Otto_Stapf.xlsx
+++ b/biology/Botanique/Otto_Stapf/Otto_Stapf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Stapf, né le 23 mars 1857 à Bad Ischl et mort le 3 août 1933 à Innsbruck, est un botaniste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Stapf obtient son doctorat à l'université de Vienne en Autriche. Il devient membre associé à la Société linnéenne de Londres en 1898, puis membre en 1908. Le 7 mai de la même année, il devient membre de la Royal Society. Il reçoit en 1928 la médaille Victoria de l'honneur, en 1927 la médaille linnéenne, et en 1931 la médaille commémorative Veitch.
 De 1882 à 1889, il est l’assistant du professeur Anton Kerner von Marilaun. Il voyage en Iran en 1885. Il est assistant aux Jardins botaniques royaux de Kew en 1891, puis conservateur de 1909 à 1922.
